--- a/cs-models/eai/dam/smk.dk/common.xlsx
+++ b/cs-models/eai/dam/smk.dk/common.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
   <si>
     <t>Property name</t>
   </si>
@@ -280,45 +280,21 @@
     <t>image:references</t>
   </si>
   <si>
-    <t>Object id(only for the search screen)</t>
-  </si>
-  <si>
     <t>system usenot image property, used only for the search screen in DAM system</t>
   </si>
   <si>
-    <t>cultObj:chc:externalID</t>
-  </si>
-  <si>
     <t>cultObj:id</t>
   </si>
   <si>
-    <t>Object Number(only for the search screen)</t>
-  </si>
-  <si>
     <t>not image property, used only for the search screen in DAM system</t>
   </si>
   <si>
-    <t>cultObj:chc:accNumber</t>
-  </si>
-  <si>
-    <t>cultObj:number</t>
-  </si>
-  <si>
-    <t>Title(only for the search screen)</t>
-  </si>
-  <si>
     <t>cultObj:dcterms:title</t>
   </si>
   <si>
     <t>cultObj:title</t>
   </si>
   <si>
-    <t>Artist(s)(only for the search screen)</t>
-  </si>
-  <si>
-    <t>cultObj:chc:artistNames</t>
-  </si>
-  <si>
     <t>cultObj:artistNames</t>
   </si>
   <si>
@@ -326,13 +302,61 @@
   </si>
   <si>
     <t>Searchable</t>
+  </si>
+  <si>
+    <t>cultObj:smk:artistNames</t>
+  </si>
+  <si>
+    <t>Fingerprint</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>an..120</t>
+  </si>
+  <si>
+    <t>system property; image specific</t>
+  </si>
+  <si>
+    <t>chc:fingerprint</t>
+  </si>
+  <si>
+    <t>fingerprint</t>
+  </si>
+  <si>
+    <t>image:fingerprint</t>
+  </si>
+  <si>
+    <t>Integrated</t>
+  </si>
+  <si>
+    <t>an..1024</t>
+  </si>
+  <si>
+    <t>chc:integratedSystemId</t>
+  </si>
+  <si>
+    <t>integratedSystemId</t>
+  </si>
+  <si>
+    <t>CMS number</t>
+  </si>
+  <si>
+    <t>cultObj:emf:externalID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Artist(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -347,6 +371,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,9 +410,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,15 +717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" customWidth="1"/>
     <col min="16" max="16" width="32.5703125" customWidth="1"/>
   </cols>
@@ -713,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -739,7 +784,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1287,204 +1332,220 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="1" t="s">
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cs-models/eai/dam/smk.dk/common.xlsx
+++ b/cs-models/eai/dam/smk.dk/common.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-eclipse\cs-models-new\models\eai\dam\smk.dk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="570" windowWidth="24615" windowHeight="11700"/>
   </bookViews>
@@ -208,9 +213,6 @@
     <t>image:source</t>
   </si>
   <si>
-    <t>DAM identifier</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -226,9 +228,6 @@
     <t>image:id</t>
   </si>
   <si>
-    <t>Cataloged on</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
@@ -340,16 +339,22 @@
     <t>integratedSystemId</t>
   </si>
   <si>
-    <t>CMS number</t>
-  </si>
-  <si>
     <t>cultObj:emf:externalID</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Artist(s)</t>
+    <t>CMS-nummer</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Kunstner/Producent</t>
+  </si>
+  <si>
+    <t>DAM Id</t>
+  </si>
+  <si>
+    <t>Katalogiseret den</t>
   </si>
 </sst>
 </file>
@@ -426,6 +431,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -473,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,7 +728,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -784,7 +792,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1134,7 +1142,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1149,42 +1157,42 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>67</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1199,34 +1207,34 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>73</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>75</v>
       </c>
       <c r="P10" t="s">
         <v>21</v>
@@ -1234,7 +1242,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -1252,28 +1260,28 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>81</v>
       </c>
       <c r="O11" t="s">
         <v>21</v>
@@ -1284,7 +1292,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1296,37 +1304,37 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>85</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" t="s">
-        <v>87</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
@@ -1334,7 +1342,7 @@
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1346,32 +1354,32 @@
         <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
@@ -1383,24 +1391,24 @@
         <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -1433,10 +1441,10 @@
         <v>21</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>21</v>
@@ -1445,12 +1453,12 @@
         <v>21</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -1483,24 +1491,24 @@
         <v>21</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
@@ -1533,10 +1541,10 @@
         <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>21</v>
@@ -1545,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
